--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="579">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,21 +1742,6 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>dfsd</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>ew</t>
-  </si>
-  <si>
-    <t>fghfg</t>
-  </si>
-  <si>
     <t>Nufus</t>
   </si>
   <si>
@@ -1767,13 +1752,18 @@
   </si>
   <si>
     <t>54000</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1824,7 +1814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1884,11 +1874,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1912,6 +1911,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2194,18 +2199,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2219,10 +2226,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2236,10 +2249,18 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>A2</f>
+        <v>Afghanistan</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(B2,", ",C2,",",D2)</f>
+        <v>Kabul, Afganistan,Kabil</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2252,8 +2273,16 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="5" t="str">
+        <f t="shared" ref="G3:G30" si="0">A3</f>
+        <v>Albania</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H30" si="1">CONCATENATE(B3,", ",C3,",",D3)</f>
+        <v>Tirana, Arnavutluk,Tiran</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2263,8 +2292,19 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Algeria</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Aljiers, Cezayir,Cezayir</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2277,8 +2317,16 @@
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Andorra</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>Andorra la Vella, Andorra,Andorra la Vella</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2291,8 +2339,16 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Angola</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Luanda, Angola,Luanda</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2305,8 +2361,16 @@
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Antigua &amp; Barbuda</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Saint John’s, Antigua ve Barbuda,Saint John’s</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2319,8 +2383,16 @@
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Argentina</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Buenos Aires, Arjantin,Buenos Aires</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2333,8 +2405,16 @@
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Armenia</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Yerevan, Ermenistan,Erivan</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2348,10 +2428,18 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Australia</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>Canberra, Avustralya,Canberra</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2364,8 +2452,16 @@
       <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Austria</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Vienna, Avusturya,Viyana</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2378,8 +2474,16 @@
       <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Azerbaijan</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>Baku, Azerbaycan,Bakü</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2392,8 +2496,16 @@
       <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>The Bahamas</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Nassau, Bahamalar,Nassau</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2518,16 @@
       <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahrain</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Manama, Bahreyn,Manama</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2421,10 +2541,18 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bangladesh</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Dhaka, Bangladeş,Dakka</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2437,8 +2565,16 @@
       <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Barbados</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>Bridgetown, Barbados,Bridgetown</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -2451,8 +2587,16 @@
       <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Belarus</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Minsk, Belarus,Minsk</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -2465,8 +2609,16 @@
       <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Belgium</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Brussels, Belçika,Brüksel</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -2479,8 +2631,16 @@
       <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Belize</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Belmopan, Belize,Belmopan</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -2493,8 +2653,16 @@
       <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Benin</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>Porto Novo, Benin,Porto Novo</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
@@ -2507,8 +2675,16 @@
       <c r="D21" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhutan</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Thimphu, Butan,Thimphu</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -2521,8 +2697,16 @@
       <c r="D22" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bolivia</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>La Paz, Bolivya,La Paz</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
@@ -2535,8 +2719,16 @@
       <c r="D23" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bosnia &amp; Herzegovina</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Sarajevo, Bosna-Hersek,Saraybosna</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -2549,8 +2741,16 @@
       <c r="D24" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Botswana</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>Gaborone, Botswana,Gaboron</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -2563,8 +2763,16 @@
       <c r="D25" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Brazil</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Brasilia, Brezilya,Brasilia</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -2577,8 +2785,16 @@
       <c r="D26" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Brunei</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Bandar Seri Begawan, Brunei,Bandar Seri Begawan</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
@@ -2591,8 +2807,16 @@
       <c r="D27" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bulgaria</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Sofia, Bulgaristan,Sofya</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -2605,8 +2829,16 @@
       <c r="D28" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Burkina Faso</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>Ouagadougou, Burkina Faso,Ouagadougou</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2619,8 +2851,16 @@
       <c r="D29" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Burundi</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Bujumbura, Burundi,Bujumbura</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
@@ -2633,8 +2873,16 @@
       <c r="D30" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Cambodia</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>Phnom Penh, Kamboçya,Phnom Penh</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -2648,7 +2896,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -4454,7 +4702,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>482</v>
       </c>
@@ -4468,7 +4716,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>484</v>
       </c>
@@ -4482,7 +4730,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>487</v>
       </c>
@@ -4496,7 +4744,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>490</v>
       </c>
@@ -4510,7 +4758,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>492</v>
       </c>
@@ -4524,7 +4772,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>496</v>
       </c>
@@ -4538,7 +4786,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>499</v>
       </c>
@@ -4552,7 +4800,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>503</v>
       </c>
@@ -4566,7 +4814,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>507</v>
       </c>
@@ -4580,7 +4828,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>511</v>
       </c>
@@ -4594,7 +4842,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>514</v>
       </c>
@@ -4607,8 +4855,10 @@
       <c r="D171" s="7" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>516</v>
       </c>
@@ -4622,7 +4872,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>519</v>
       </c>
@@ -4636,7 +4886,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>522</v>
       </c>
@@ -4650,7 +4900,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>525</v>
       </c>
@@ -4664,7 +4914,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>528</v>
       </c>
@@ -4896,37 +5146,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C15"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>577</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1743,15 +1743,6 @@
   </si>
   <si>
     <t>Nufus</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>54000</t>
   </si>
   <si>
     <t>key</t>
@@ -2202,7 +2193,7 @@
   <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H30"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,10 +2220,10 @@
         <v>573</v>
       </c>
       <c r="G1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2248,8 +2239,8 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>574</v>
+      <c r="E2">
+        <v>1500000</v>
       </c>
       <c r="G2" s="5" t="str">
         <f>A2</f>
@@ -2427,8 +2418,8 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>575</v>
+      <c r="E10">
+        <v>250000</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2540,8 +2531,8 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
-        <v>576</v>
+      <c r="E15">
+        <v>54000</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2706,7 +2697,7 @@
         <v>La Paz, Bolivya,La Paz</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
